--- a/1.sem studiegruppedannelse hold 1A E2024.xlsx
+++ b/1.sem studiegruppedannelse hold 1A E2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelh\Desktop\gruppe_cluster_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kelh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077EBFA1-6243-477B-B90B-1B1C907E922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AB5257-D92F-435E-BEAB-02B8E0CDEAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,15 +172,9 @@
     <t>4</t>
   </si>
   <si>
-    <t>Natasha</t>
-  </si>
-  <si>
     <t>Middel</t>
   </si>
   <si>
-    <t>Bo og Natasha</t>
-  </si>
-  <si>
     <t>xx1@kea.dk</t>
   </si>
   <si>
@@ -215,6 +209,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>b og n</t>
   </si>
 </sst>
 </file>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,10 +975,10 @@
         <v>45476.439942129633</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1049,10 +1049,10 @@
         <v>45476.440520833334</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
         <v>25</v>
@@ -1123,10 +1123,10 @@
         <v>45476.441354166665</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
@@ -1197,10 +1197,10 @@
         <v>45476.44159722222</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1271,10 +1271,10 @@
         <v>45476.503078703703</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>36</v>
@@ -1334,7 +1334,7 @@
         <v>39</v>
       </c>
       <c r="Y6" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
@@ -1348,13 +1348,13 @@
         <v>45476.504895833299</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>37</v>
@@ -1411,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="Y7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
